--- a/Zuordnung_aktuell.xlsx
+++ b/Zuordnung_aktuell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matjes/Repos/DeepFLaSH2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB95590-D18F-C94E-BA1D-E92DBB6F1604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBEE521-33FF-C84B-9F7E-F7F37807B747}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1315" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1335" sqref="L1335"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K154" sqref="K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5856,6 +5856,9 @@
         <v>33</v>
       </c>
       <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
         <v>1</v>
       </c>
     </row>
